--- a/Simulation plan.xlsx
+++ b/Simulation plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snatanzi\Desktop\5G-Sionna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC170F30-1042-4686-9527-06FB7474AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686ACED8-75C7-4036-825A-9C1D1E39E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBC76553-AFEE-4628-AA9C-6A3FFA8C229C}"/>
+    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{CBC76553-AFEE-4628-AA9C-6A3FFA8C229C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>Simulation Plan</t>
   </si>
@@ -202,9 +202,6 @@
     <t>100K</t>
   </si>
   <si>
-    <t>500K</t>
-  </si>
-  <si>
     <t>For performance validation</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>Modulation Order</t>
   </si>
   <si>
-    <t>20 MHz</t>
-  </si>
-  <si>
     <t xml:space="preserve">QPSK, 16-QAM, 64-QAM	</t>
   </si>
   <si>
@@ -479,6 +473,9 @@
   </si>
   <si>
     <t>1.5m</t>
+  </si>
+  <si>
+    <t>2 MHz</t>
   </si>
 </sst>
 </file>
@@ -1120,6 +1117,123 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,73 +1258,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,57 +1287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F98D7C-062A-481B-AE5A-48935F369302}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,36 +1654,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -1694,18 +1691,18 @@
       <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1714,174 +1711,174 @@
       <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1890,120 +1887,120 @@
       <c r="C14" s="6">
         <v>64</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2012,108 +2009,108 @@
       <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2125,534 +2122,560 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D32" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
+      <c r="D36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
+      <c r="D37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="30" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="9">
         <v>0.99</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="D42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
+      <c r="D43" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="9">
         <v>256</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="31"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D51" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="B53" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="C53" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="D53" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="C54" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="15" t="s">
+      <c r="D54" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="C55" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="15" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="C56" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="31"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
-      <c r="B56" s="15" t="s">
+      <c r="D56" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="73"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D26:J26"/>
@@ -2669,44 +2692,18 @@
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D56:J56"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="D48:J48"/>
     <mergeCell ref="D49:J49"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="A21:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Simulation plan.xlsx
+++ b/Simulation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snatanzi\Desktop\5G-Sionna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686ACED8-75C7-4036-825A-9C1D1E39E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0DF7E-5AA1-42AF-9ACD-69F72D286222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{CBC76553-AFEE-4628-AA9C-6A3FFA8C229C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>Simulation Plan</t>
   </si>
@@ -157,9 +157,6 @@
     <t>1 slot</t>
   </si>
   <si>
-    <t>-5 to 25 dB</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>Doppler shift set to 0 Hz, no mobility/time-variation in channel modeling.</t>
   </si>
   <si>
@@ -476,6 +470,9 @@
   </si>
   <si>
     <t>2 MHz</t>
+  </si>
+  <si>
+    <t>0 to 30 dB</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1114,108 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,8 +1225,53 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1146,147 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,7 +1639,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,36 +1651,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -1691,18 +1688,18 @@
       <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1711,174 +1708,174 @@
       <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="64"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="64"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="64"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1887,230 +1884,230 @@
       <c r="C14" s="6">
         <v>64</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="D22" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="D23" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2122,525 +2119,572 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="D32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="D41" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="9" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C42" s="9">
         <v>0.99</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
+      <c r="D42" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C44" s="9">
         <v>256</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
+      <c r="D44" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="9" t="s">
+      <c r="D47" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D48" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="9" t="s">
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D49" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="69"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="40" t="s">
+      <c r="C51" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="53"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="B53" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="D53" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="71"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="D54" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="45"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="45"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D56" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="73"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D3:J3"/>
@@ -2657,53 +2701,6 @@
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="A21:A32"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Simulation plan.xlsx
+++ b/Simulation plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snatanzi\Desktop\5G-Sionna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0DF7E-5AA1-42AF-9ACD-69F72D286222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58984347-946A-4BA7-89FD-D8B83B7905A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{CBC76553-AFEE-4628-AA9C-6A3FFA8C229C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>Simulation Plan</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Channel Realizations</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>Initial training set</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t xml:space="preserve">Antenna Pattern	</t>
   </si>
   <si>
-    <t>Single/dual</t>
-  </si>
-  <si>
     <t>5-15 dBi</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Define gain levels for realistic signal strength modeling.</t>
   </si>
   <si>
-    <t>Add dual polarization for extended diversity.</t>
-  </si>
-  <si>
     <t>Bandwidth</t>
   </si>
   <si>
@@ -334,12 +325,6 @@
     <t>Matches subcarrier spacing and number of subcarriers.</t>
   </si>
   <si>
-    <t xml:space="preserve">FSPL, ITU Urban Macro	</t>
-  </si>
-  <si>
-    <t>Implement Free Space Path Loss (FSPL) or ITU-based models (e.g., Urban Macro, Urban Micro).-Include distance-related signal degradation.</t>
-  </si>
-  <si>
     <t>RX devices like modem or fixed stations.</t>
   </si>
   <si>
@@ -473,6 +458,18 @@
   </si>
   <si>
     <t>0 to 30 dB</t>
+  </si>
+  <si>
+    <t>FSPL</t>
+  </si>
+  <si>
+    <t>Implement Free Space Path Loss (FSPL)</t>
+  </si>
+  <si>
+    <t>Add single polarization</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,6 +1111,123 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,27 +1252,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,12 +1273,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,94 +1282,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1642,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection sqref="A1:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,36 +1654,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -1688,18 +1691,18 @@
       <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1708,174 +1711,174 @@
       <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1884,120 +1887,120 @@
       <c r="C14" s="6">
         <v>64</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2006,108 +2009,108 @@
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2119,533 +2122,564 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="1" t="s">
+      <c r="D32" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="75">
+        <v>1320000</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="44" t="s">
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="44" t="s">
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D40" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="44" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C42" s="9">
         <v>0.99</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
+      <c r="D42" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
+        <v>105</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C44" s="9">
         <v>256</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="9" t="s">
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="C53" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="D53" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="53"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="C54" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="D54" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="C55" s="74">
+        <v>1320000</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="15" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D56" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="45"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="45"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="B56" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="73"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="A57:J57"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="D42:J42"/>
@@ -2662,45 +2696,14 @@
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D56:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
